--- a/iniData/META_DATA.xlsx
+++ b/iniData/META_DATA.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -12,8 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
-    <sheet name="테이블설명" sheetId="2" r:id="rId1"/>
-    <sheet name="변수설명" sheetId="1" r:id="rId2"/>
+    <sheet name="테이블" sheetId="2" r:id="rId1"/>
+    <sheet name="0.글로벌지수_변수" sheetId="1" r:id="rId2"/>
+    <sheet name="1.지수_변수" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,164 +27,408 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="111">
   <si>
     <t>SPX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SSEC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>GDAXI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>N225</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>KOSPI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>미국 S&amp;P 500지수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>중국 상해종합지수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>독일 DAX 30지수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>일본 니케이225</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>한국 KOSPI200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>프랑스 CAC40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>브라질 BOVESPA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>인도 Bombay Sensitive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>러시아 RTS ($) 지수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>베트남 VN지수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>변수명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>변수설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타겟여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>FCHI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>BVSP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>BSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>RTS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>VNI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TimeLog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TimeStamp 변수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>테이블명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>테이블 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>G_IDX_CLOSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>G_IDX_HIGH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>G_IDX_LOW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>G_IDX_VOLUME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>글로벌지수 종가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>글로벌지수 고가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>글로벌지수 저가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>글로벌지수 거래량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>칼럼수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G_IDX_CLOSE; G_IDX_HIGH; G_IDX_LOW; G_IDX_VOLUME</t>
-  </si>
-  <si>
-    <t>테이블 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bIXMLACWF</t>
+  </si>
+  <si>
+    <t>bIXMLWRLD</t>
+  </si>
+  <si>
+    <t>bIXMLEMKF</t>
+  </si>
+  <si>
+    <t>bIXMLEURO</t>
+  </si>
+  <si>
+    <t>bIXMLAAPF</t>
+  </si>
+  <si>
+    <t>bIXMLNAMR</t>
+  </si>
+  <si>
+    <t>bIXNRCN</t>
+  </si>
+  <si>
+    <t>bIXNRUSDW</t>
+  </si>
+  <si>
+    <t>bIXMLEROP</t>
+  </si>
+  <si>
+    <t>bIXNRUK</t>
+  </si>
+  <si>
+    <t>bIXMLPACF</t>
+  </si>
+  <si>
+    <t>bIXNRAU</t>
+  </si>
+  <si>
+    <t>bIXNRHKHS</t>
+  </si>
+  <si>
+    <t>bIXNRJPTP</t>
+  </si>
+  <si>
+    <t>bIXNRNZ</t>
+  </si>
+  <si>
+    <t>bIXNRSP</t>
+  </si>
+  <si>
+    <t>bIXMLEFLA</t>
+  </si>
+  <si>
+    <t>bIXNRAG</t>
+  </si>
+  <si>
+    <t>bIXNRCL</t>
+  </si>
+  <si>
+    <t>bIXNRMX</t>
+  </si>
+  <si>
+    <t>bIXMLEMEA</t>
+  </si>
+  <si>
+    <t>bIXNRSA</t>
+  </si>
+  <si>
+    <t>bIXNRTK</t>
+  </si>
+  <si>
+    <t>bIXMLEMFA</t>
+  </si>
+  <si>
+    <t>bIXNRKOKS</t>
+  </si>
+  <si>
+    <t>bIXNRID</t>
+  </si>
+  <si>
+    <t>bIXNRMY</t>
+  </si>
+  <si>
+    <t>bIXNRPH</t>
+  </si>
+  <si>
+    <t>bIXNRTW</t>
+  </si>
+  <si>
+    <t>bIXNRTH</t>
+  </si>
+  <si>
+    <t>전세계</t>
+  </si>
+  <si>
+    <t>선진국시장</t>
+  </si>
+  <si>
+    <t>신흥시장</t>
+  </si>
+  <si>
+    <t>유럽</t>
+  </si>
+  <si>
+    <t>아시아 태평양</t>
+  </si>
+  <si>
+    <t>선진 북미</t>
+  </si>
+  <si>
+    <t>캐나다(S&amp;P/TSX COMPOSITE INDEX)</t>
+  </si>
+  <si>
+    <t>미국 다우존스 산업평균(Datastream)</t>
+  </si>
+  <si>
+    <t>선진 유럽</t>
+  </si>
+  <si>
+    <t>영국:FTSE100</t>
+  </si>
+  <si>
+    <t>선진 태평양</t>
+  </si>
+  <si>
+    <t>호주(ASX)</t>
+  </si>
+  <si>
+    <t>홍콩 항셍지수</t>
+  </si>
+  <si>
+    <t>일본 TOPIX</t>
+  </si>
+  <si>
+    <t>뉴질랜드(NZX50)</t>
+  </si>
+  <si>
+    <t>싱가폴(Straits Times Index)</t>
+  </si>
+  <si>
+    <t>신흥 남미</t>
+  </si>
+  <si>
+    <t>아르헨티나(ARGENTINA MERVAL)</t>
+  </si>
+  <si>
+    <t>칠레(IPSA)</t>
+  </si>
+  <si>
+    <t>멕시코(BOLSA)</t>
+  </si>
+  <si>
+    <t>신흥 유럽 / 중동</t>
+  </si>
+  <si>
+    <t>남아프리카(FTSE/JSE)</t>
+  </si>
+  <si>
+    <t>터키(BIST NATIONAL 100)</t>
+  </si>
+  <si>
+    <t>신흥 아시아</t>
+  </si>
+  <si>
+    <t>한국 코스피</t>
+  </si>
+  <si>
+    <t>인도네시아(JCI)</t>
+  </si>
+  <si>
+    <t>말레이시아(FTSE Bursa Malaysia KLCI)</t>
+  </si>
+  <si>
+    <t>필리핀(PSEi)</t>
+  </si>
+  <si>
+    <t>대만(TAIEX)</t>
+  </si>
+  <si>
+    <t>태국(SET)</t>
+  </si>
+  <si>
+    <t>아이템 명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료변환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주기변환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원자료</t>
+  </si>
+  <si>
+    <t>기간말값(E:0)</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>채우기타입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0. 글로벌지수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템심볼(변수명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 지수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수설명 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.글로벌지수_변수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.지수_변수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="4">
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="183" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="184" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,16 +444,232 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helv"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Helv"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="25"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="54"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -230,22 +692,411 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="29"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="29"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="46"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="46"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="46"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="46"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="46"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="46"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="46"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11"/>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="55">
+    <cellStyle name="20% - Accent1" xfId="3"/>
+    <cellStyle name="20% - Accent2" xfId="4"/>
+    <cellStyle name="20% - Accent3" xfId="5"/>
+    <cellStyle name="20% - Accent4" xfId="6"/>
+    <cellStyle name="20% - Accent5" xfId="7"/>
+    <cellStyle name="20% - Accent6" xfId="8"/>
+    <cellStyle name="40% - Accent1" xfId="9"/>
+    <cellStyle name="40% - Accent2" xfId="10"/>
+    <cellStyle name="40% - Accent3" xfId="11"/>
+    <cellStyle name="40% - Accent4" xfId="12"/>
+    <cellStyle name="40% - Accent5" xfId="13"/>
+    <cellStyle name="40% - Accent6" xfId="14"/>
+    <cellStyle name="60% - Accent1" xfId="15"/>
+    <cellStyle name="60% - Accent2" xfId="16"/>
+    <cellStyle name="60% - Accent3" xfId="17"/>
+    <cellStyle name="60% - Accent4" xfId="18"/>
+    <cellStyle name="60% - Accent5" xfId="19"/>
+    <cellStyle name="60% - Accent6" xfId="20"/>
+    <cellStyle name="Accent1" xfId="24"/>
+    <cellStyle name="Accent2" xfId="25"/>
+    <cellStyle name="Accent3" xfId="26"/>
+    <cellStyle name="Accent4" xfId="27"/>
+    <cellStyle name="Accent5" xfId="28"/>
+    <cellStyle name="Accent6" xfId="29"/>
+    <cellStyle name="Bad" xfId="30"/>
+    <cellStyle name="Calculation" xfId="31"/>
+    <cellStyle name="Check Cell" xfId="32"/>
+    <cellStyle name="Comma [0]_Chart_Bal" xfId="33"/>
+    <cellStyle name="Comma_Chart_Bal" xfId="34"/>
+    <cellStyle name="Currency [0]_Chart_Bal" xfId="35"/>
+    <cellStyle name="Currency_Chart_Bal" xfId="36"/>
+    <cellStyle name="Explanatory Text" xfId="37"/>
+    <cellStyle name="Good" xfId="38"/>
+    <cellStyle name="Heading 1" xfId="39"/>
+    <cellStyle name="Heading 2" xfId="40"/>
+    <cellStyle name="Heading 3" xfId="41"/>
+    <cellStyle name="Heading 4" xfId="42"/>
+    <cellStyle name="Input" xfId="43"/>
+    <cellStyle name="Linked Cell" xfId="44"/>
+    <cellStyle name="Neutral" xfId="45"/>
+    <cellStyle name="Normal_Code" xfId="46"/>
+    <cellStyle name="Note" xfId="47"/>
+    <cellStyle name="Notes" xfId="48"/>
+    <cellStyle name="Output" xfId="49"/>
+    <cellStyle name="Title" xfId="50"/>
+    <cellStyle name="Total" xfId="51"/>
+    <cellStyle name="Warning Text" xfId="52"/>
+    <cellStyle name="백분율 2" xfId="53"/>
+    <cellStyle name="스타일 1" xfId="2"/>
+    <cellStyle name="콤마 [0]_일일금융시장_new" xfId="21"/>
+    <cellStyle name="콤마_일일금융시장_new" xfId="22"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="23"/>
+    <cellStyle name="표준 3" xfId="54"/>
+    <cellStyle name="표준 4" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -523,7 +1374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -531,77 +1382,124 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="29.5" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D3" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="E3" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D4" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="E4" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D5" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="E5" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="2">
         <v>30</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1">
-        <v>10</v>
+      <c r="E6" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -610,148 +1508,1314 @@
     <col min="2" max="2" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD7"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:AD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R2" t="s">
+        <v>82</v>
+      </c>
+      <c r="S2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T2" t="s">
+        <v>84</v>
+      </c>
+      <c r="U2" t="s">
+        <v>85</v>
+      </c>
+      <c r="V2" t="s">
+        <v>86</v>
+      </c>
+      <c r="W2" t="s">
+        <v>87</v>
+      </c>
+      <c r="X2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD5" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0</v>
+      </c>
+      <c r="V6" s="3">
+        <v>0</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0</v>
+      </c>
+      <c r="X6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="W7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD7" s="9" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>